--- a/docassemble/MAEvictionDefense/data/sources/eviction_es.xlsx
+++ b/docassemble/MAEvictionDefense/data/sources/eviction_es.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSteenhuis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSteenhuis\Google Drive\eviction-interview\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5083" uniqueCount="2090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5076" uniqueCount="2090">
   <si>
     <t>interview</t>
   </si>
@@ -22437,10 +22437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H726"/>
+  <dimension ref="A1:H725"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="I189" sqref="I189"/>
+    <sheetView tabSelected="1" topLeftCell="A707" workbookViewId="0">
+      <selection activeCell="A713" sqref="A713:XFD713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40963,18 +40963,18 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="713" spans="1:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>479</v>
+        <v>1279</v>
       </c>
       <c r="C713" s="2">
-        <v>4005</v>
+        <v>2008</v>
       </c>
       <c r="D713" s="2" t="s">
-        <v>491</v>
+        <v>2051</v>
       </c>
       <c r="E713" s="2" t="s">
         <v>11</v>
@@ -40983,50 +40983,50 @@
         <v>12</v>
       </c>
       <c r="G713" s="3" t="s">
-        <v>492</v>
+        <v>2052</v>
       </c>
       <c r="H713" s="4" t="s">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B714" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C714" s="2">
+        <v>3003</v>
+      </c>
+      <c r="D714" s="2" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E714" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F714" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G714" s="3" t="s">
+        <v>2055</v>
+      </c>
+      <c r="H714" s="4" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A715" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B715" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="C714" s="2">
-        <v>2008</v>
-      </c>
-      <c r="D714" s="2" t="s">
-        <v>2051</v>
-      </c>
-      <c r="E714" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F714" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G714" s="3" t="s">
-        <v>2052</v>
-      </c>
-      <c r="H714" s="4" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="715" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A715" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B715" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="C715" s="2">
-        <v>3003</v>
+        <v>2012</v>
       </c>
       <c r="D715" s="2" t="s">
-        <v>2054</v>
+        <v>2057</v>
       </c>
       <c r="E715" s="2" t="s">
         <v>11</v>
@@ -41035,10 +41035,10 @@
         <v>12</v>
       </c>
       <c r="G715" s="3" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="H715" s="4" t="s">
-        <v>2056</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="716" spans="1:8" x14ac:dyDescent="0.25">
@@ -41049,10 +41049,10 @@
         <v>1279</v>
       </c>
       <c r="C716" s="2">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="D716" s="2" t="s">
-        <v>2057</v>
+        <v>2060</v>
       </c>
       <c r="E716" s="2" t="s">
         <v>11</v>
@@ -41061,10 +41061,10 @@
         <v>12</v>
       </c>
       <c r="G716" s="3" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="H716" s="4" t="s">
-        <v>2059</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="717" spans="1:8" x14ac:dyDescent="0.25">
@@ -41075,10 +41075,10 @@
         <v>1279</v>
       </c>
       <c r="C717" s="2">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>2060</v>
+        <v>2063</v>
       </c>
       <c r="E717" s="2" t="s">
         <v>11</v>
@@ -41087,10 +41087,10 @@
         <v>12</v>
       </c>
       <c r="G717" s="3" t="s">
-        <v>2061</v>
+        <v>2064</v>
       </c>
       <c r="H717" s="4" t="s">
-        <v>2062</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.25">
@@ -41101,10 +41101,10 @@
         <v>1279</v>
       </c>
       <c r="C718" s="2">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="D718" s="2" t="s">
-        <v>2063</v>
+        <v>2066</v>
       </c>
       <c r="E718" s="2" t="s">
         <v>11</v>
@@ -41113,10 +41113,10 @@
         <v>12</v>
       </c>
       <c r="G718" s="3" t="s">
-        <v>2064</v>
+        <v>2067</v>
       </c>
       <c r="H718" s="4" t="s">
-        <v>2065</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.25">
@@ -41127,10 +41127,10 @@
         <v>1279</v>
       </c>
       <c r="C719" s="2">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="D719" s="2" t="s">
-        <v>2066</v>
+        <v>2069</v>
       </c>
       <c r="E719" s="2" t="s">
         <v>11</v>
@@ -41139,10 +41139,10 @@
         <v>12</v>
       </c>
       <c r="G719" s="3" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="H719" s="4" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.25">
@@ -41153,10 +41153,10 @@
         <v>1279</v>
       </c>
       <c r="C720" s="2">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="D720" s="2" t="s">
-        <v>2069</v>
+        <v>2072</v>
       </c>
       <c r="E720" s="2" t="s">
         <v>11</v>
@@ -41165,10 +41165,10 @@
         <v>12</v>
       </c>
       <c r="G720" s="3" t="s">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="H720" s="4" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.25">
@@ -41179,10 +41179,10 @@
         <v>1279</v>
       </c>
       <c r="C721" s="2">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="D721" s="2" t="s">
-        <v>2072</v>
+        <v>2075</v>
       </c>
       <c r="E721" s="2" t="s">
         <v>11</v>
@@ -41191,10 +41191,10 @@
         <v>12</v>
       </c>
       <c r="G721" s="3" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="H721" s="4" t="s">
-        <v>2074</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.25">
@@ -41202,13 +41202,13 @@
         <v>207</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>1279</v>
+        <v>253</v>
       </c>
       <c r="C722" s="2">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="D722" s="2" t="s">
-        <v>2075</v>
+        <v>2078</v>
       </c>
       <c r="E722" s="2" t="s">
         <v>11</v>
@@ -41217,10 +41217,10 @@
         <v>12</v>
       </c>
       <c r="G722" s="3" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="H722" s="4" t="s">
-        <v>2077</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.25">
@@ -41228,13 +41228,13 @@
         <v>207</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>253</v>
+        <v>1279</v>
       </c>
       <c r="C723" s="2">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="D723" s="2" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="E723" s="2" t="s">
         <v>11</v>
@@ -41243,10 +41243,10 @@
         <v>12</v>
       </c>
       <c r="G723" s="3" t="s">
-        <v>2079</v>
+        <v>2082</v>
       </c>
       <c r="H723" s="4" t="s">
-        <v>2080</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.25">
@@ -41257,10 +41257,10 @@
         <v>1279</v>
       </c>
       <c r="C724" s="2">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>2081</v>
+        <v>2084</v>
       </c>
       <c r="E724" s="2" t="s">
         <v>11</v>
@@ -41269,10 +41269,10 @@
         <v>12</v>
       </c>
       <c r="G724" s="3" t="s">
-        <v>2082</v>
+        <v>2085</v>
       </c>
       <c r="H724" s="4" t="s">
-        <v>2083</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.25">
@@ -41283,10 +41283,10 @@
         <v>1279</v>
       </c>
       <c r="C725" s="2">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>2084</v>
+        <v>2087</v>
       </c>
       <c r="E725" s="2" t="s">
         <v>11</v>
@@ -41295,40 +41295,14 @@
         <v>12</v>
       </c>
       <c r="G725" s="3" t="s">
-        <v>2085</v>
+        <v>2088</v>
       </c>
       <c r="H725" s="4" t="s">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A726" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B726" s="2" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C726" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D726" s="2" t="s">
-        <v>2087</v>
-      </c>
-      <c r="E726" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F726" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G726" s="3" t="s">
-        <v>2088</v>
-      </c>
-      <c r="H726" s="4" t="s">
         <v>2089</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docassemble/MAEvictionDefense/data/sources/eviction_es.xlsx
+++ b/docassemble/MAEvictionDefense/data/sources/eviction_es.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5806" uniqueCount="2394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5734" uniqueCount="2394">
   <si>
     <t>interview</t>
   </si>
@@ -26223,7 +26223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H819"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A753" workbookViewId="0">
       <selection activeCell="I188" sqref="I188"/>
     </sheetView>
   </sheetViews>
